--- a/databases/3T_NIST_T1maps_general_fitting_model_database.xlsx
+++ b/databases/3T_NIST_T1maps_general_fitting_model_database.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -50,22 +50,21 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -2449,50 +2448,46 @@
   978.99326285  995.42739346  997.60091392 1000.25852487 1000.55213841
  1000.5439932   995.13365468 1037.87217411 1024.71525802 1000.4109184
   984.56369357  983.75453626  982.02214418  989.08728851 1019.19831826
- 1016.1201251  1038.51605152 1038.07166555 1043.47191217 1041.89634101
- 1053.13359146]</t>
+ 1038.51605152 1038.07166555 1043.47191217 1041.89634101 1053.13359146]</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>[409.20423641 658.24050134 775.25267076 796.74901111 798.77833742
- 791.47877622 380.08600614 682.57430003 793.9722489  803.06981741
- 782.67962962 774.43889422 788.6270479  816.54407213 197.1692867
- 499.34631489 782.27829565 798.42999824 754.37552831 744.54253192
- 747.47678941 757.27393322 787.45404756 818.17444986 387.2450938
- 705.73558855 799.12699766 767.59250815 738.82888788 742.06436809
- 747.5325088  745.26414189 750.79039997 802.38064621 436.11190728
+          <t>[658.24050134 775.25267076 796.74901111 798.77833742 791.47877622
+ 682.57430003 793.9722489  803.06981741 782.67962962 774.43889422
+ 788.6270479  816.54407213 499.34631489 782.27829565 798.42999824
+ 754.37552831 744.54253192 747.47678941 757.27393322 787.45404756
+ 818.17444986 705.73558855 799.12699766 767.59250815 738.82888788
+ 742.06436809 747.5325088  745.26414189 750.79039997 802.38064621
  737.82913481 794.55714555 749.21130827 739.17065145 742.13224095
- 743.57788777 737.66189305 740.55304736 793.60359281 445.9703869
- 742.85574521 801.24810311 747.96423691 736.86483516 744.54882076
- 749.96401273 744.1341979  738.17936045 784.69630223 395.68203677
- 706.69873653 804.87802676 766.1194355  737.13245409 741.73555591
- 744.89619757 745.98268203 760.45178654 800.12482913 150.39637389
- 485.19176452 770.18388397 807.64388268 766.6624885  745.86532271
- 744.44043488 756.453426   788.76728458 802.68224092 509.58222239
- 789.37652395 814.20452915 791.65442272 786.58272058 796.97718069
- 811.00918485 495.73598382 726.21616772 776.93569646 784.32304874
- 777.98540341]</t>
+ 743.57788777 737.66189305 740.55304736 793.60359281 742.85574521
+ 801.24810311 747.96423691 736.86483516 744.54882076 749.96401273
+ 744.1341979  738.17936045 784.69630223 706.69873653 804.87802676
+ 766.1194355  737.13245409 741.73555591 744.89619757 745.98268203
+ 760.45178654 800.12482913 485.19176452 770.18388397 807.64388268
+ 766.6624885  745.86532271 744.44043488 756.453426   788.76728458
+ 802.68224092 509.58222239 789.37652395 814.20452915 791.65442272
+ 786.58272058 796.97718069 811.00918485 495.73598382 726.21616772
+ 776.93569646 784.32304874 777.98540341]</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>[428.14780373 533.67586526 562.13456903 555.01097934 543.40902088
- 469.21534305 563.3928272  574.04799916 567.75614788 572.15809
- 575.60352058 571.57769648 452.92600042 562.71019127 577.61100346
- 562.58917184 553.70573814 551.80892224 559.13683818 568.45078246
- 574.11449851 276.10136647 517.13849335 577.47627303 556.59075336
- 549.01366361 549.81619502 548.45477299 547.93036055 558.43038595
- 569.46164754 445.07288987 544.32154348 566.72424313 549.47899245
- 551.37893827 551.79835047 548.89488321 548.78869947 547.33598617
- 558.31378501 551.11993682 564.40917669 549.24758114 548.17104496
- 550.03778354 551.15929366 550.38327175 548.59585725 554.52347773
- 537.37960098 570.42280539 552.29222767 547.69841663 549.38369754
- 551.49423954 556.18421103 553.85610024 558.19309935 512.10467386
- 577.1954057  557.87491957 548.47687613 551.34576453 549.61538811
- 550.28822144 554.2310937  566.63067629 549.82359082 571.00749702
- 557.97290438 551.4820186  552.95753638 556.13349172 565.77410357
- 572.66816546 546.35722233 568.92725367 575.70942292 573.26997168
+          <t>[533.67586526 562.13456903 555.01097934 543.40902088          nan
+ 563.3928272  574.04799916 567.75614788 572.15809    575.60352058
+ 571.57769648          nan 577.61100346 562.58917184 553.70573814
+ 551.80892224 559.13683818 568.45078246 574.11449851          nan
+ 577.47627303 556.59075336 549.01366361 549.81619502 548.45477299
+ 547.93036055 558.43038595 569.46164754          nan 566.72424313
+ 549.47899245 551.37893827 551.79835047 548.89488321 548.78869947
+ 547.33598617 558.31378501          nan 564.40917669 549.24758114
+ 548.17104496 550.03778354 551.15929366 550.38327175 548.59585725
+ 554.52347773          nan 570.42280539 552.29222767 547.69841663
+ 549.38369754 551.49423954 556.18421103 553.85610024 558.19309935
+          nan 577.1954057  557.87491957 548.47687613 551.34576453
+ 549.61538811 550.28822144 554.2310937  566.63067629          nan
+ 571.00749702 557.97290438 551.4820186  552.95753638 556.13349172
+ 565.77410357 572.66816546 568.92725367 575.70942292 573.26997168
  571.57134969 568.08981309]</t>
         </is>
       </c>
@@ -4414,26 +4409,19 @@
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>[1439.19252923 1504.37296955 1444.70364968 1296.20850515 1205.81628945
- 1691.95284696 1709.96906006 1697.03449564 1706.64515498 1690.09141577
- 1509.58502217 1319.12835895 1706.23400701 1645.86472078 1545.67828729
- 1539.9825215  1539.66768865 1661.58471737 1702.86398724 1507.53368098
- 1349.55784737 1665.96384931 1641.65159648 1522.65993358 1526.4613878
- 1524.42030008 1519.68883987 1540.23712491 1651.15707585 1671.70727137
- 1468.64285454 1374.05037576 1675.51128461 1547.02576389 1526.65863241
+          <t>[1709.96906006 1697.03449564 1706.64515498 1690.09141577 1645.86472078
+ 1545.67828729 1539.9825215  1539.66768865 1661.58471737 1702.86398724
+ 1641.65159648 1522.65993358 1526.4613878  1524.42030008 1519.68883987
+ 1540.23712491 1651.15707585 1671.70727137 1547.02576389 1526.65863241
  1535.16008582 1544.83390132 1536.73830067 1536.4928917  1548.25742325
- 1671.64574895 1516.04358698 1283.91875771 1667.22279149 1538.18210316
- 1535.45711922 1540.10773364 1541.52776287 1538.09343828 1532.15406858
- 1535.72239953 1669.62643689 1648.77530392 1385.47667809 1436.27002888
- 1673.39052489 1529.02968992 1528.98339572 1529.01308919 1538.40314288
- 1541.40483811 1532.30030782 1535.698863   1662.36662694 1537.89931167
- 1336.13127475 1675.14052716 1546.8924212  1535.47050349 1527.85235583
+ 1671.64574895 1538.18210316 1535.45711922 1540.10773364 1541.52776287
+ 1538.09343828 1532.15406858 1535.72239953 1669.62643689 1529.02968992
+ 1528.98339572 1529.01308919 1538.40314288 1541.40483811 1532.30030782
+ 1535.698863   1662.36662694 1546.8924212  1535.47050349 1527.85235583
  1527.30203037 1529.3219016  1538.6336632  1542.60762684 1680.36370618
- 1501.72191392 1642.23813646 1667.46859888 1534.48607911 1531.93939197
- 1536.99014241 1539.14190832 1549.03714244 1656.97434433 1672.79969169
- 1686.19835762 1680.1373108  1554.58564132 1554.67939541 1555.96049078
- 1681.05556163 1704.58968483 1548.78358397 1712.77290606 1705.91708673
- 1705.65363024 1645.38301692]</t>
+ 1667.46859888 1534.48607911 1531.93939197 1536.99014241 1539.14190832
+ 1549.03714244 1656.97434433 1680.1373108  1554.58564132 1554.67939541
+ 1555.96049078 1681.05556163]</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
@@ -4503,69 +4491,64 @@
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>[360.09061019 425.03504194 425.41854211 400.62146236 390.31537471
- 391.20670349 381.17366472 416.35508305 413.22141387 393.38124022
- 399.23542822 404.08199242 402.75882515 398.20795405 261.9355036
- 394.64345023 418.69671779 397.31561439 398.17686884 398.65294617
- 398.08867142 398.28693478 404.14746925 406.81287915 446.65466545
- 402.14784564 404.94897417 395.24870847 398.07192394 397.10925769
- 405.1846136  404.23233368 400.03064742 404.31445879 429.0577872
+          <t>[425.03504194 425.41854211 400.62146236 390.31537471 391.20670349
+ 416.35508305 413.22141387 393.38124022 399.23542822 404.08199242
+ 402.75882515 398.20795405 394.64345023 418.69671779 397.31561439
+ 398.17686884 398.65294617 398.08867142 398.28693478 404.14746925
+ 406.81287915 402.14784564 404.94897417 395.24870847 398.07192394
+ 397.10925769 405.1846136  404.23233368 400.03064742 404.31445879
  413.5655056  404.6992254  397.67240934 397.42057094 397.25586399
- 400.01912293 398.6788534  398.7334363  399.95368402 410.51512213
- 413.01314682 402.20143687 396.9689894  400.01336474 402.3239585
- 404.66693026 404.21485632 405.80539382 401.86256468 442.14104966
- 411.13961152 405.16516778 396.89258311 402.48991691 397.99724305
- 397.84720996 398.03773621 400.10277546 403.0257146  416.63458093
- 405.96032063 416.71977552 394.83964138 402.49169398 399.77567325
- 402.20489438 403.41252026 400.84737017 405.66135129 389.80820214
+ 400.01912293 398.6788534  398.7334363  399.95368402 413.01314682
+ 402.20143687 396.9689894  400.01336474 402.3239585  404.66693026
+ 404.21485632 405.80539382 401.86256468 411.13961152 405.16516778
+ 396.89258311 402.48991691 397.99724305 397.84720996 398.03773621
+ 400.10277546 403.0257146  416.71977552 394.83964138 402.49169398
+ 399.77567325 402.20489438 403.41252026 400.84737017 405.66135129
  423.84667448 403.24469323 397.33931519 403.50688292 400.20905464
- 399.26548485 402.15472415 393.15708853 425.67472828 402.34722051
- 396.66910395 399.50447307 402.6988634 ]</t>
+ 399.26548485 402.15472415 402.34722051 396.66910395 399.50447307
+ 402.6988634 ]</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>[250.99914407 283.59300907 291.10907775 295.03491459 283.00372399
- 288.55106451 306.85257902 298.5056273  291.49114509 290.98110798
- 300.1602308  308.19576489 295.12380598 304.20988613 284.57629573
- 277.87610021 278.26542204 279.65485748 279.06250971 283.08663708
- 306.73031121 243.04812575 305.04440621 285.26998067 280.53274708
- 282.56272005 284.16610087 283.62530659 286.22769876 280.21414493
- 285.36967303 304.43566539 282.62969021 301.05242734 289.25902837
- 281.44518055 280.9754154  283.29375177 281.04614546 282.15970896
- 284.63395795 277.93095978 299.05744493 282.28758251 293.99696934
- 284.90459234 281.64567391 282.22873544 282.1229906  283.59189646
- 283.88486609 285.34485812 277.96771964 295.68201937 277.33139461
+          <t>[288.55106451 306.85257902 298.5056273  291.49114509 290.98110798
+ 300.1602308  295.12380598 304.20988613 284.57629573 277.87610021
+ 278.26542204 279.65485748 279.06250971 283.08663708 306.73031121
+ 305.04440621 285.26998067 280.53274708 282.56272005 284.16610087
+ 283.62530659 286.22769876 280.21414493 285.36967303 304.43566539
+ 301.05242734 289.25902837 281.44518055 280.9754154  283.29375177
+ 281.04614546 282.15970896 284.63395795 277.93095978 299.05744493
+ 293.99696934 284.90459234 281.64567391 282.22873544 282.1229906
+ 283.59189646 283.88486609 285.34485812 277.96771964 295.68201937
  301.44516084 282.21069759 280.92333919 280.77639066 280.36632665
  283.29432145 284.03033248 285.91226634 278.27951624 295.69932094
- 222.17964161 260.23965307 302.32055656 282.11217269 282.4687885
- 285.09953824 282.72106354 282.92057584 284.92019046 285.57985407
- 276.23632736 263.36617636 294.77150581 299.20678059 283.36606061
- 285.20278979 284.04588644 282.99055557 285.59537023 281.83314393
- 269.84280013 304.02247436 291.84998682 279.51895879 280.48428774
- 283.37819535 283.76321069 266.27435952 309.46832593 302.30848984
- 291.97594924 291.24989167]</t>
+ 302.32055656 282.11217269 282.4687885  285.09953824 282.72106354
+ 282.92057584 284.92019046 285.57985407 276.23632736 294.77150581
+ 299.20678059 283.36606061 285.20278979 284.04588644 282.99055557
+ 285.59537023 281.83314393 304.02247436 291.84998682 279.51895879
+ 280.48428774 283.37819535 283.76321069 302.30848984 291.97594924
+ 291.24989167]</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
           <t>[204.29999761 190.16561484 192.53683909 195.61431273 207.50098411
  191.01004788 193.20989343 193.70681411 194.67518995 193.78140671
- 194.74990319 203.83573403 195.11783375 194.14513607 197.62858475
- 194.78092707 197.13403498 198.32647622 196.90633238 195.67457492
- 204.50532233 192.33411264 196.72446332 194.66332623 194.25619629
- 195.47038113 195.14034681 195.55411473 194.84236992 200.01602748
- 203.47679863 193.99131471 196.90642422 194.47768869 196.57474218
- 198.34829641 195.47503107 194.34612035 196.92541774 199.29530574
- 202.43477588 192.32360642 197.15926024 193.55486757 195.13068595
- 196.50485512 195.04713662 194.8916992  195.29016214 197.87917082
- 203.59727702 194.411384   198.70969992 196.20698677 197.3249796
- 196.91761456 196.25996282 199.0249692  196.66985417 199.73668936
- 202.94039846 196.91886932 195.21223967 195.999315   192.79546924
- 195.4015154  195.21749944 195.56563753 195.83137267 199.09915038
- 205.70417634 190.92249345 198.03192788 199.06789717 199.01458203
- 197.61131583 200.55710592 202.94376623 205.80854696 190.87345414
- 192.95217711 198.07940396 199.0177068  194.74240299]</t>
+ 194.74990319 195.11783375 194.14513607 197.62858475 194.78092707
+ 197.13403498 198.32647622 196.90633238 195.67457492 204.50532233
+ 192.33411264 196.72446332 194.66332623 194.25619629 195.47038113
+ 195.14034681 195.55411473 194.84236992 200.01602748 203.47679863
+ 193.99131471 196.90642422 194.47768869 196.57474218 198.34829641
+ 195.47503107 194.34612035 196.92541774 199.29530574 202.43477588
+ 192.32360642 197.15926024 193.55486757 195.13068595 196.50485512
+ 195.04713662 194.8916992  195.29016214 197.87917082 203.59727702
+ 194.411384   198.70969992 196.20698677 197.3249796  196.91761456
+ 196.25996282 199.0249692  196.66985417 199.73668936 196.91886932
+ 195.21223967 195.999315   192.79546924 195.4015154  195.21749944
+ 195.56563753 195.83137267 199.09915038 205.70417634 190.92249345
+ 198.03192788 199.06789717 199.01458203 197.61131583 200.55710592
+ 202.94376623 205.80854696 190.87345414 192.95217711 198.07940396
+ 199.0177068  194.74240299]</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
@@ -11519,14 +11502,12 @@
  20.0004866  20.28559961 20.51565645 21.10461834 20.44337931 21.63338496
  20.27063564 19.34642348 19.76701545 18.17333148 19.18787986 20.55204034
  20.08199047 20.67742299 21.09323356 22.12619524 20.47475216 20.19256582
- 18.47665533 17.79088593 20.254375   21.11887181 20.73850811 19.98269047
- 18.64975981 20.93188876 22.69099084 21.63184985 20.39358408 19.35349972
- 21.29562894 20.71987965 20.32162387 21.08684302 20.16197166 21.2127567
- 21.83400499 21.21275542 19.48404887 19.65340241 20.78620891 19.0859605
- 21.80119627 20.8516321  19.18372779 20.22111426 19.8692686  20.021173
- 20.57781673 20.75247209 17.54696336 20.43912231 18.36873673 18.32090633
- 19.60621541 20.51520485 20.59523258 20.39334052 20.10140797 18.02564532
- 19.15313005 18.76775612 18.97176487 18.03368776 16.77504003]</t>
+ 18.47665533 17.79088593 20.254375   21.11887181 19.98269047 18.64975981
+ 20.93188876 22.69099084 21.63184985 20.39358408 19.35349972 21.29562894
+ 20.71987965 20.32162387 21.08684302 20.16197166 21.2127567  21.83400499
+ 21.21275542 19.48404887 19.65340241 20.78620891 19.0859605  19.18372779
+ 20.22111426 19.8692686  20.021173   20.57781673 20.75247209 17.54696336
+ 18.32090633 19.60621541 20.51520485 20.59523258 20.39334052]</t>
         </is>
       </c>
     </row>
@@ -11875,25 +11856,20 @@
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>[  43.78391291   43.45789722   43.12610326   42.76450054   36.11088571
-   41.82271532   41.48867488   41.84513632   41.87320658   41.10666564
-   34.64620298   15.29823287 1122.08454837   42.48917753   42.14622074
-   42.18560275   42.57343402   40.24584133   40.40322886   26.60166154
-   15.79320752   23.11066458   42.33503173   42.71764256   42.97946421
-   42.5352137    40.24286977  124.67018355   25.65948236   18.75259143
-  232.60137323 4523.14180698   42.41018213   42.49035465   42.56763388
-   42.31962342   42.86676035   40.48631326  126.33387726   32.15913778
-   22.8047273   177.43393659   25.16635343   42.45695491   42.62967311
-   42.33043942   42.28724346   42.97509232   40.31635662  127.08949923
-   38.48895593   31.50458392  152.57974104  182.09120594   42.31076082
-   42.1902261    41.981231     42.36436079   42.37843984   42.09246608
-   41.90754062   41.79236603   37.76941474  166.25129607   41.15094081
-   42.26002266   42.20986817   42.65943157   42.41841154   42.61907081
-   42.06125325   41.67706541   41.36154365   39.26163696  151.93244529
-   42.13411139   41.96000488   42.16689609   42.25785349   42.77149799
-   42.70050028   42.35510473   41.96104399   43.83322029   41.88490985
-   41.94769929   42.57027103   42.6150726    42.43702102   42.37465951
-   42.10446357   42.06163126   41.7530304    42.63689992]</t>
+          <t>[ 41.82271532  41.48867488  41.84513632  41.87320658  41.10666564
+  42.48917753  42.14622074  42.18560275  42.57343402  40.24584133
+  40.40322886  42.33503173  42.71764256  42.97946421  42.5352137
+  40.24286977 124.67018355  42.41018213  42.49035465  42.56763388
+  42.31962342  42.86676035  40.48631326 126.33387726  32.15913778
+  42.45695491  42.62967311  42.33043942  42.28724346  42.97509232
+  40.31635662 127.08949923  38.48895593  42.31076082  42.1902261
+  41.981231    42.36436079  42.37843984  42.09246608  41.90754062
+  41.79236603  37.76941474  42.26002266  42.20986817  42.65943157
+  42.41841154  42.61907081  42.06125325  41.67706541  41.36154365
+  42.13411139  41.96000488  42.16689609  42.25785349  42.77149799
+  42.70050028  42.35510473  41.96104399  41.88490985  41.94769929
+  42.57027103  42.6150726   42.43702102  42.37465951  42.10446357
+  42.06163126  41.7530304   42.63689992]</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
@@ -11993,7 +11969,7 @@
         <v>130</v>
       </c>
       <c r="M30" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="N30" t="n">
         <v>22.1</v>
@@ -12277,24 +12253,21 @@
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>[  91.5531673   317.94623566  151.42326725  114.0117338   123.67499115
-  123.37210976  100.89148361  103.16718679 2391.66734668  189.49395334
-  114.08481143  127.50997904   43.65127651  105.49233844  107.44096219
-   99.84307588   99.57403831  181.83912485   21.63469257   32.93538566
+          <t>[ 317.94623566  123.37210976  100.89148361  103.16718679 2391.66734668
+  127.50997904   43.65127651  105.49233844  107.44096219   99.84307588
   138.67441582   43.04039883  106.91859269  108.61232238  103.14541261
-  102.93737507  103.36369362  132.4153637    32.93468312  158.75926181
-  131.71082427  114.77966594  107.04848881  107.1821375   108.38516088
-  105.47085877  103.55377573  116.54039909  128.44037858  123.61031818
-  119.5869286   109.69232073  109.5381584   105.94474062  106.37348017
-  105.68752731  104.76694897  105.65657614  102.89304442  109.02706929
-  114.45635323  111.99635774  110.52539858  105.72007048  107.38528735
-  106.38940402  109.1179055   105.10750951  104.35762796  104.11249839
-  106.54656683  110.41231229  109.08520616  108.21871717  106.73795082
-  107.26261293  107.29985546  108.58880825  103.71915146  104.78778615
-  107.00972167  106.18370841  105.4247516   105.45869164  105.18503924
-  106.74153453  106.46239719  103.75762519  105.78623419  105.35787333
-  105.36593797  107.47167386  107.57971099  107.05320387  103.46977645
-  103.61703352  105.56554341]</t>
+  102.93737507   32.93468312  158.75926181  131.71082427  114.77966594
+  107.04848881  107.1821375   108.38516088  105.47085877  128.44037858
+  123.61031818  119.5869286   109.69232073  109.5381584   105.94474062
+  106.37348017  105.68752731  104.76694897  105.65657614  102.89304442
+  109.02706929  114.45635323  111.99635774  110.52539858  105.72007048
+  107.38528735  106.38940402  109.1179055   105.10750951  104.35762796
+  104.11249839  106.54656683  110.41231229  109.08520616  108.21871717
+  106.73795082  107.26261293  107.29985546  108.58880825  103.71915146
+  104.78778615  107.00972167  106.18370841  105.4247516   105.45869164
+  105.18503924  106.74153453  106.46239719  103.75762519  105.78623419
+  105.35787333  105.36593797  107.47167386  107.57971099  107.05320387
+  103.46977645  103.61703352  105.56554341]</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
@@ -12335,11 +12308,10 @@
   27.44078093  27.97446623  26.85885386  28.25420059  28.73034846
   29.23257375  30.49500195 177.02230296  28.80403029  28.29167431
   28.22035218  29.16238071  29.42050108  29.61120235  28.64948204
-  30.87769016 179.18228105  30.75438429 182.84621055  29.5955005
-  28.70334115  28.34354113  27.94796974  28.34287367  29.8438909
-  29.52980251  31.00642232  29.25631577 180.77858517 179.597268
- 179.83525172 179.54485911  30.08039617  31.59008573 174.39276108
-  29.46422088  28.40043674  28.71107929  30.32390493]</t>
+  30.87769016 179.18228105 182.84621055  29.5955005   28.70334115
+  28.34354113  27.94796974  28.34287367  29.8438909   29.52980251
+  29.25631577 180.77858517 179.597268   179.83525172 179.54485911
+  30.08039617]</t>
         </is>
       </c>
     </row>
@@ -12683,33 +12655,31 @@
  73.6656046  73.62336432 75.54400548 75.58720131 75.86490815 74.88922173
  75.7906267  74.89412406 75.33327759 74.09701442 73.74558855 72.5034234
  74.11176876 74.47448716 75.03517049 74.39366157 76.09723264 74.29989973
- 74.12264471 74.8826428  81.0747626  73.19386032 73.82522454 76.41317276
- 73.91848249 75.63334579 74.13155331 74.94400392 74.49786337 75.26824347
- 74.30752998 75.18594367 75.99633212 73.70331615 75.17433041 73.54609785
- 74.90261026 73.69385056 73.88791984 82.11047845 72.34752134 77.67343877
- 73.8514007  76.53622253 73.5607772  73.93354821 73.308112   74.22401143
- 75.45575169 76.3267357  74.13700214 74.68818723]</t>
+ 74.12264471 74.8826428  73.19386032 73.82522454 76.41317276 73.91848249
+ 75.63334579 74.13155331 74.94400392 74.49786337 75.26824347 74.30752998
+ 75.18594367 75.99633212 73.70331615 75.17433041 73.54609785 74.90261026
+ 73.69385056 73.88791984 72.34752134 77.67343877 73.8514007  76.53622253
+ 73.5607772  73.93354821 73.308112   74.22401143 75.45575169 76.3267357
+ 74.13700214 74.68818723]</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>[ 130.03399396  118.3849128   128.52649606  122.59786947   96.07377588
-  105.83004268 1171.14117119  153.25518352  114.15703429  129.02418024
-   40.54259052  103.94575648  109.70969635  102.66531341  174.44772072
-   26.39391609   32.13403157  134.12075033   39.98061229  105.00759104
-  108.80810771  104.19571059   99.16033152  104.20667118  123.32913511
-   37.84804714  144.10052692  125.28370509   45.18116702  107.1984988
-  107.49793716  108.83308388  103.37938819  103.34219311  114.23910402
-  122.57516725  119.19413523  115.02534495   48.92100971  110.26059758
-  106.95681528  108.60001748  106.07783518  102.22155386  100.36727748
-  108.94336182  113.07608068  111.20694123  108.36238616  105.23713436
-  109.02663633  106.55963881  109.21001763  104.98620021  104.49425603
-  102.78672383  104.56667301  107.53696118  107.63673035  106.5589002
-  107.37584937  109.85163145  106.17492966  108.05069227  105.24656385
-  104.24147727  107.32614949  106.02610761  104.46979913  105.60627876
-  106.52832161  106.63543928  106.24330735  101.9410407   106.53939435
-  105.92840331  105.85877297  106.61023441  108.1807836   107.30688205
-  103.79419461  102.73673221  103.89240157]</t>
+          <t>[128.52649606 122.59786947  96.07377588 114.15703429 129.02418024
+  40.54259052 103.94575648 109.70969635  32.13403157 134.12075033
+  39.98061229 105.00759104 108.80810771 104.19571059  37.84804714
+ 144.10052692 125.28370509  45.18116702 107.1984988  107.49793716
+ 108.83308388 103.37938819 103.34219311 114.23910402 122.57516725
+ 119.19413523 115.02534495  48.92100971 110.26059758 106.95681528
+ 108.60001748 106.07783518 102.22155386 100.36727748 108.94336182
+ 113.07608068 111.20694123 108.36238616 105.23713436 109.02663633
+ 106.55963881 109.21001763 104.98620021 104.49425603 102.78672383
+ 104.56667301 107.53696118 107.63673035 106.5589002  107.37584937
+ 109.85163145 106.17492966 108.05069227 105.24656385 104.24147727
+ 107.32614949 106.02610761 104.46979913 105.60627876 106.52832161
+ 106.63543928 106.24330735 101.9410407  106.53939435 105.92840331
+ 105.85877297 106.61023441 108.1807836  107.30688205 103.79419461
+ 102.73673221 103.89240157]</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
@@ -12751,9 +12721,8 @@
   28.37440306  28.25368028  28.54785472  29.68726599  29.95804999
   30.38163064 169.8580674  177.14002204 180.68003145  29.55392038
   29.4970164   30.07024858 175.29073901  30.39220961  30.86727814
- 170.90943172 176.73877521 179.33658306 179.34730045  29.3835334
-  29.43439281  29.69022527 175.49918063 175.18375872 169.16987629
- 172.83701565 173.70672592 174.25164072 173.59526527]</t>
+ 170.90943172 179.33658306 179.34730045  29.3835334   29.43439281
+  29.69022527 175.49918063]</t>
         </is>
       </c>
     </row>
@@ -17013,6 +16982,6 @@
       <c r="AQ42" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>